--- a/2021/ML_MCO/ML_MCO.xlsx
+++ b/2021/ML_MCO/ML_MCO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evgeniy.kozinov\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN\ExaMinPapers\2021\ML_MCO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC17CF10-A255-4696-A840-0169DE97C7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F772DEF3-C9EF-438C-A898-C3B9FB1F496F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8AE9858B-0061-4F18-90E2-DEF7661D41D8}"/>
   </bookViews>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1996,12 +1997,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2016,6 +2014,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0643492364068878E-2"/>
+          <c:y val="3.1851765466982929E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2029,12 +2035,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
@@ -2047,7 +2050,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15141666666666667"/>
+          <c:y val="0.16939926566556229"/>
+          <c:w val="0.6888333333333333"/>
+          <c:h val="0.69363768053583474"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2439,7 +2452,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2812,47 +2825,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$E$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>alpha</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2875,12 +2847,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2940,12 +2909,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2978,12 +2944,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3029,12 +2992,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3067,12 +3027,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3098,6 +3055,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1712187647"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3110,6 +3068,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.641488845144357"/>
+          <c:y val="2.8461196448804554E-2"/>
+          <c:w val="0.29479986876640418"/>
+          <c:h val="9.7221863660485061E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3123,12 +3091,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
@@ -3170,7 +3135,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1400">
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
           <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
@@ -6748,8 +6716,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>475180</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -6778,16 +6746,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7114,8 +7082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14188FF-24CE-4195-9D02-69278B58CAD8}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="M16" zoomScale="178" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
